--- a/data public/tox_data_materials.xlsx
+++ b/data public/tox_data_materials.xlsx
@@ -1,21 +1,47 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10116"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/l.oswald/Documents/GitHub/empathy_toxicity_public/data public/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F008BDD4-F634-8F4D-BC89-FCB829B9F9C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="500" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="5">
+  <si>
+    <t>text_id</t>
+  </si>
+  <si>
+    <t>error</t>
+  </si>
+  <si>
+    <t>TOXICITY</t>
+  </si>
+  <si>
+    <t>SEVERE_TOXICITY</t>
+  </si>
+  <si>
+    <t>No Error</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -63,6 +89,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -109,7 +143,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -141,9 +175,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -175,6 +227,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -350,161 +420,137 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>text_id</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>error</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>TOXICITY</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>SEVERE_TOXICITY</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>No Error</t>
-        </is>
+      <c r="B2" t="s">
+        <v>4</v>
       </c>
       <c r="C2">
-        <v>0.59863794</v>
+        <v>0.59863794000000004</v>
       </c>
       <c r="D2">
-        <v>0.16139282</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>0.16139281999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>No Error</t>
-        </is>
+      <c r="B3" t="s">
+        <v>4</v>
       </c>
       <c r="C3">
-        <v>0.39230084</v>
+        <v>0.39230083999999998</v>
       </c>
       <c r="D3">
-        <v>0.016051453</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>1.6051453E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>No Error</t>
-        </is>
+      <c r="B4" t="s">
+        <v>4</v>
       </c>
       <c r="C4">
-        <v>0.6662635</v>
+        <v>0.66626350000000001</v>
       </c>
       <c r="D4">
-        <v>0.18058838</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>0.18058837999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>No Error</t>
-        </is>
+      <c r="B5" t="s">
+        <v>4</v>
       </c>
       <c r="C5">
-        <v>0.39230084</v>
+        <v>0.39230083999999998</v>
       </c>
       <c r="D5">
-        <v>0.014921906</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>1.4921906E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>No Error</t>
-        </is>
+      <c r="B6" t="s">
+        <v>4</v>
       </c>
       <c r="C6">
-        <v>0.6254302</v>
+        <v>0.62543020000000005</v>
       </c>
       <c r="D6">
         <v>0.111855336</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>No Error</t>
-        </is>
+      <c r="B7" t="s">
+        <v>4</v>
       </c>
       <c r="C7">
-        <v>0.37360558</v>
+        <v>0.37360557999999999</v>
       </c>
       <c r="D7">
-        <v>0.016408153</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>1.6408153000000002E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>No Error</t>
-        </is>
+      <c r="B8" t="s">
+        <v>4</v>
       </c>
       <c r="C8">
-        <v>0.5958905</v>
+        <v>0.59589049999999999</v>
       </c>
       <c r="D8">
-        <v>0.15123047</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>0.15123047000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>No Error</t>
-        </is>
+      <c r="B9" t="s">
+        <v>4</v>
       </c>
       <c r="C9">
-        <v>0.37954164</v>
+        <v>0.37954164000000001</v>
       </c>
       <c r="D9">
-        <v>0.016883751</v>
+        <v>1.6883750999999999E-2</v>
       </c>
     </row>
   </sheetData>
